--- a/biology/Médecine/Rameau_alvéolaire_supérieur_et_postérieur/Rameau_alvéolaire_supérieur_et_postérieur.xlsx
+++ b/biology/Médecine/Rameau_alvéolaire_supérieur_et_postérieur/Rameau_alvéolaire_supérieur_et_postérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_alv%C3%A9olaire_sup%C3%A9rieur_et_post%C3%A9rieur</t>
+          <t>Rameau_alvéolaire_supérieur_et_postérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux alvéolaires supérieurs et postérieurs (ou nerfs dentaires postérieurs) naissent du nerf maxillaire.
 Ils sont généralement au nombre de deux ou trois, mais naissent parfois d'un seul tronc juste avant son entrée dans le sillon infra-orbitaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rameau_alv%C3%A9olaire_sup%C3%A9rieur_et_post%C3%A9rieur</t>
+          <t>Rameau_alvéolaire_supérieur_et_postérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux alvéolaires supérieurs et postérieurs descendent sur la tubérosité maxillaire et émettent plusieurs rameaux vers les gencives et les parties voisines de la muqueuse de la joue.
 Ils pénètrent ensuite dans les canaux alvéolaires sur la surface infra-temporale du maxillaire et passent d'arrière en avant dans le corps de l'os.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rameau_alv%C3%A9olaire_sup%C3%A9rieur_et_post%C3%A9rieur</t>
+          <t>Rameau_alvéolaire_supérieur_et_postérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une anesthésie alvéolaire supérieur et postérieur anesthésiera la racine mésiobuccale de la première molaire dans 72 % des cas.
 </t>
